--- a/input_xlsx/RL_2018-12-31.xlsx
+++ b/input_xlsx/RL_2018-12-31.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TAMBORA MUDA\PENULISAN MANUSCRIPT\Biodivers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="6560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,7 +23,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -688,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -732,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -899,7 +894,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -943,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -987,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1393,7 +1388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1437,7 +1432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1569,7 +1564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1613,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0">
+    <comment ref="R1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1648,7 +1643,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1692,7 +1687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1736,7 +1731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1780,7 +1775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1868,7 +1863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1912,7 +1907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1956,7 +1951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2000,7 +1995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2044,7 +2039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2078,7 +2073,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2122,7 +2117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2166,7 +2161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2191,7 +2186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2235,7 +2230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2279,7 +2274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2323,7 +2318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2367,7 +2362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2411,7 +2406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2460,7 +2455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7893" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7893" uniqueCount="1333">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -6467,6 +6462,42 @@
   </si>
   <si>
     <t>S3AT19</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE001</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE002</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE003</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE004</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE005</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE006</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE007</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE008</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE009</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE010</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE011</t>
+  </si>
+  <si>
+    <t>UI-2007NI-RL022-CS003-VE012</t>
   </si>
 </sst>
 </file>
@@ -7219,25 +7250,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.75" style="10" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="42.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="72.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="72.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="17" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" style="10" customWidth="1"/>
     <col min="8" max="8" width="13" style="10" customWidth="1"/>
-    <col min="9" max="10" width="14.875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="10" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" style="10" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" style="10" customWidth="1"/>
     <col min="14" max="16" width="13.5" style="10" customWidth="1"/>
     <col min="17" max="17" width="32.25" style="10" customWidth="1"/>
     <col min="18" max="18" width="25.25" style="10" customWidth="1"/>
@@ -7246,7 +7277,7 @@
     <col min="21" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -7308,7 +7339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>54</v>
       </c>
@@ -7359,7 +7390,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>120</v>
       </c>
@@ -7409,7 +7440,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>120</v>
       </c>
@@ -7459,7 +7490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>120</v>
       </c>
@@ -7509,7 +7540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>120</v>
       </c>
@@ -7559,7 +7590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>120</v>
       </c>
@@ -7609,7 +7640,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>120</v>
       </c>
@@ -7659,7 +7690,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>120</v>
       </c>
@@ -7710,7 +7741,7 @@
       </c>
       <c r="T9" s="25"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>120</v>
       </c>
@@ -7761,7 +7792,7 @@
       </c>
       <c r="T10" s="25"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>120</v>
       </c>
@@ -7812,7 +7843,7 @@
       </c>
       <c r="T11" s="25"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>120</v>
       </c>
@@ -7863,7 +7894,7 @@
       </c>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>120</v>
       </c>
@@ -7914,7 +7945,7 @@
       </c>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>120</v>
       </c>
@@ -7965,7 +7996,7 @@
       </c>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>120</v>
       </c>
@@ -8016,7 +8047,7 @@
       </c>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>120</v>
       </c>
@@ -8067,7 +8098,7 @@
       </c>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>120</v>
       </c>
@@ -8118,7 +8149,7 @@
       </c>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>120</v>
       </c>
@@ -8169,7 +8200,7 @@
       </c>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>120</v>
       </c>
@@ -8220,7 +8251,7 @@
       </c>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
@@ -8271,7 +8302,7 @@
       </c>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>120</v>
       </c>
@@ -8322,7 +8353,7 @@
       </c>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>120</v>
       </c>
@@ -8373,7 +8404,7 @@
       </c>
       <c r="T22" s="25"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>120</v>
       </c>
@@ -8424,7 +8455,7 @@
       </c>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>120</v>
       </c>
@@ -8475,7 +8506,7 @@
       </c>
       <c r="T24" s="25"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>120</v>
       </c>
@@ -8526,7 +8557,7 @@
       </c>
       <c r="T25" s="25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>120</v>
       </c>
@@ -8577,7 +8608,7 @@
       </c>
       <c r="T26" s="25"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>120</v>
       </c>
@@ -8628,7 +8659,7 @@
       </c>
       <c r="T27" s="25"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>120</v>
       </c>
@@ -8679,7 +8710,7 @@
       </c>
       <c r="T28" s="25"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>120</v>
       </c>
@@ -8730,7 +8761,7 @@
       </c>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>120</v>
       </c>
@@ -8781,7 +8812,7 @@
       </c>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>120</v>
       </c>
@@ -8832,7 +8863,7 @@
       </c>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>120</v>
       </c>
@@ -8883,7 +8914,7 @@
       </c>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>120</v>
       </c>
@@ -8934,7 +8965,7 @@
       </c>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>120</v>
       </c>
@@ -8985,7 +9016,7 @@
       </c>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>120</v>
       </c>
@@ -9036,7 +9067,7 @@
       </c>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>120</v>
       </c>
@@ -9087,7 +9118,7 @@
       </c>
       <c r="T36" s="25"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>120</v>
       </c>
@@ -9138,7 +9169,7 @@
       </c>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>120</v>
       </c>
@@ -9189,7 +9220,7 @@
       </c>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>343</v>
       </c>
@@ -9243,7 +9274,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>343</v>
       </c>
@@ -9297,7 +9328,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>343</v>
       </c>
@@ -9351,7 +9382,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>343</v>
       </c>
@@ -9405,7 +9436,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>343</v>
       </c>
@@ -9459,7 +9490,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>343</v>
       </c>
@@ -9513,7 +9544,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>343</v>
       </c>
@@ -9567,7 +9598,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="25" t="s">
         <v>442</v>
       </c>
@@ -9617,7 +9648,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>442</v>
       </c>
@@ -9667,7 +9698,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="25" t="s">
         <v>442</v>
       </c>
@@ -9717,7 +9748,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="25" t="s">
         <v>442</v>
       </c>
@@ -9767,7 +9798,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
         <v>442</v>
       </c>
@@ -9817,7 +9848,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="25" t="s">
         <v>442</v>
       </c>
@@ -9867,7 +9898,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="25" t="s">
         <v>442</v>
       </c>
@@ -9917,7 +9948,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="25" t="s">
         <v>442</v>
       </c>
@@ -9967,7 +9998,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="25" t="s">
         <v>442</v>
       </c>
@@ -10017,7 +10048,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="25" t="s">
         <v>442</v>
       </c>
@@ -10067,7 +10098,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
         <v>442</v>
       </c>
@@ -10117,7 +10148,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="25" t="s">
         <v>442</v>
       </c>
@@ -10167,7 +10198,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>571</v>
       </c>
@@ -10217,7 +10248,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>657</v>
       </c>
@@ -10270,7 +10301,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="25" t="s">
         <v>657</v>
       </c>
@@ -10323,7 +10354,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="25" t="s">
         <v>657</v>
       </c>
@@ -10376,7 +10407,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="25" t="s">
         <v>706</v>
       </c>
@@ -10427,7 +10458,7 @@
       </c>
       <c r="T62" s="6"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="25" t="s">
         <v>706</v>
       </c>
@@ -10477,7 +10508,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="25" t="s">
         <v>706</v>
       </c>
@@ -10527,7 +10558,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="25" t="s">
         <v>706</v>
       </c>
@@ -10577,7 +10608,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="25" t="s">
         <v>706</v>
       </c>
@@ -10627,7 +10658,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
         <v>706</v>
       </c>
@@ -10677,7 +10708,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="25" t="s">
         <v>706</v>
       </c>
@@ -10727,7 +10758,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="25" t="s">
         <v>706</v>
       </c>
@@ -10777,7 +10808,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="25" t="s">
         <v>706</v>
       </c>
@@ -10827,7 +10858,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="25" t="s">
         <v>706</v>
       </c>
@@ -10877,7 +10908,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="25" t="s">
         <v>706</v>
       </c>
@@ -10927,7 +10958,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
         <v>706</v>
       </c>
@@ -10977,7 +11008,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="25" t="s">
         <v>706</v>
       </c>
@@ -11027,7 +11058,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="25" t="s">
         <v>706</v>
       </c>
@@ -11077,7 +11108,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="25" t="s">
         <v>706</v>
       </c>
@@ -11127,7 +11158,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="25" t="s">
         <v>706</v>
       </c>
@@ -11177,7 +11208,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="25" t="s">
         <v>706</v>
       </c>
@@ -11227,7 +11258,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="25" t="s">
         <v>706</v>
       </c>
@@ -11277,7 +11308,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>706</v>
       </c>
@@ -11327,7 +11358,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="25" t="s">
         <v>706</v>
       </c>
@@ -11377,7 +11408,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="25" t="s">
         <v>706</v>
       </c>
@@ -11427,7 +11458,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="25" t="s">
         <v>706</v>
       </c>
@@ -11477,7 +11508,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>706</v>
       </c>
@@ -11527,7 +11558,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="25" t="s">
         <v>706</v>
       </c>
@@ -11577,7 +11608,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>706</v>
       </c>
@@ -11627,7 +11658,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>706</v>
       </c>
@@ -11677,7 +11708,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>706</v>
       </c>
@@ -11727,7 +11758,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="25" t="s">
         <v>706</v>
       </c>
@@ -11777,7 +11808,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>706</v>
       </c>
@@ -11827,7 +11858,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="25" t="s">
         <v>706</v>
       </c>
@@ -11877,7 +11908,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="25" t="s">
         <v>706</v>
       </c>
@@ -11927,7 +11958,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>706</v>
       </c>
@@ -11977,7 +12008,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="25" t="s">
         <v>706</v>
       </c>
@@ -12027,7 +12058,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="25" t="s">
         <v>706</v>
       </c>
@@ -12077,7 +12108,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="25" t="s">
         <v>706</v>
       </c>
@@ -12127,7 +12158,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="25" t="s">
         <v>706</v>
       </c>
@@ -12177,7 +12208,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>706</v>
       </c>
@@ -12227,7 +12258,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>706</v>
       </c>
@@ -12277,7 +12308,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>706</v>
       </c>
@@ -12327,7 +12358,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>706</v>
       </c>
@@ -12377,7 +12408,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="25" t="s">
         <v>706</v>
       </c>
@@ -12427,7 +12458,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="25" t="s">
         <v>706</v>
       </c>
@@ -12477,7 +12508,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="25" t="s">
         <v>706</v>
       </c>
@@ -12527,7 +12558,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="25" t="s">
         <v>706</v>
       </c>
@@ -12577,7 +12608,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="25" t="s">
         <v>706</v>
       </c>
@@ -12627,7 +12658,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="25" t="s">
         <v>706</v>
       </c>
@@ -12677,7 +12708,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="25" t="s">
         <v>706</v>
       </c>
@@ -12727,7 +12758,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="25" t="s">
         <v>706</v>
       </c>
@@ -12777,7 +12808,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="25" t="s">
         <v>706</v>
       </c>
@@ -12827,7 +12858,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="25" t="s">
         <v>706</v>
       </c>
@@ -12877,7 +12908,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="25" t="s">
         <v>706</v>
       </c>
@@ -12927,7 +12958,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="25" t="s">
         <v>706</v>
       </c>
@@ -12977,7 +13008,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="25" t="s">
         <v>706</v>
       </c>
@@ -13027,7 +13058,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="25" t="s">
         <v>706</v>
       </c>
@@ -13077,7 +13108,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="25" t="s">
         <v>706</v>
       </c>
@@ -13127,7 +13158,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
         <v>706</v>
       </c>
@@ -13177,7 +13208,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="25" t="s">
         <v>706</v>
       </c>
@@ -13227,7 +13258,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="25" t="s">
         <v>706</v>
       </c>
@@ -13277,7 +13308,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="25" t="s">
         <v>706</v>
       </c>
@@ -13327,7 +13358,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="25" t="s">
         <v>706</v>
       </c>
@@ -13377,7 +13408,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="25" t="s">
         <v>706</v>
       </c>
@@ -13427,7 +13458,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="25" t="s">
         <v>706</v>
       </c>
@@ -13477,7 +13508,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="25" t="s">
         <v>706</v>
       </c>
@@ -13527,7 +13558,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="25" t="s">
         <v>706</v>
       </c>
@@ -13577,7 +13608,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="25" t="s">
         <v>706</v>
       </c>
@@ -13627,7 +13658,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="25" t="s">
         <v>706</v>
       </c>
@@ -13677,7 +13708,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="25" t="s">
         <v>706</v>
       </c>
@@ -13727,7 +13758,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="25" t="s">
         <v>706</v>
       </c>
@@ -13777,7 +13808,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="25" t="s">
         <v>706</v>
       </c>
@@ -13827,7 +13858,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="25" t="s">
         <v>706</v>
       </c>
@@ -13877,7 +13908,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="25" t="s">
         <v>706</v>
       </c>
@@ -13927,7 +13958,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="25" t="s">
         <v>706</v>
       </c>
@@ -13977,7 +14008,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="25" t="s">
         <v>706</v>
       </c>
@@ -14027,7 +14058,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="25" t="s">
         <v>706</v>
       </c>
@@ -14077,7 +14108,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="25" t="s">
         <v>706</v>
       </c>
@@ -14127,7 +14158,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="25" t="s">
         <v>706</v>
       </c>
@@ -14177,7 +14208,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="25" t="s">
         <v>706</v>
       </c>
@@ -14227,7 +14258,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="25" t="s">
         <v>706</v>
       </c>
@@ -14277,7 +14308,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="25" t="s">
         <v>706</v>
       </c>
@@ -14327,7 +14358,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="25" t="s">
         <v>706</v>
       </c>
@@ -14377,7 +14408,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="25" t="s">
         <v>706</v>
       </c>
@@ -14427,7 +14458,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="25" t="s">
         <v>706</v>
       </c>
@@ -14477,7 +14508,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="25" t="s">
         <v>706</v>
       </c>
@@ -14527,7 +14558,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="25" t="s">
         <v>706</v>
       </c>
@@ -14577,7 +14608,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="25" t="s">
         <v>706</v>
       </c>
@@ -14627,7 +14658,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="25" t="s">
         <v>706</v>
       </c>
@@ -14677,7 +14708,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="25" t="s">
         <v>706</v>
       </c>
@@ -14727,7 +14758,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="25" t="s">
         <v>706</v>
       </c>
@@ -14777,7 +14808,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="25" t="s">
         <v>706</v>
       </c>
@@ -14827,7 +14858,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="25" t="s">
         <v>706</v>
       </c>
@@ -14877,7 +14908,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="25" t="s">
         <v>706</v>
       </c>
@@ -14927,7 +14958,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="25" t="s">
         <v>706</v>
       </c>
@@ -14977,7 +15008,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
         <v>706</v>
       </c>
@@ -15027,7 +15058,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="25" t="s">
         <v>706</v>
       </c>
@@ -15077,7 +15108,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="25" t="s">
         <v>706</v>
       </c>
@@ -15127,7 +15158,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="25" t="s">
         <v>706</v>
       </c>
@@ -15177,7 +15208,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
         <v>706</v>
       </c>
@@ -15227,7 +15258,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="25" t="s">
         <v>706</v>
       </c>
@@ -15277,7 +15308,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
         <v>706</v>
       </c>
@@ -15327,7 +15358,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="25" t="s">
         <v>706</v>
       </c>
@@ -15377,7 +15408,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
         <v>706</v>
       </c>
@@ -15427,7 +15458,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="25" t="s">
         <v>706</v>
       </c>
@@ -15477,7 +15508,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="25" t="s">
         <v>706</v>
       </c>
@@ -15527,7 +15558,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="25" t="s">
         <v>706</v>
       </c>
@@ -15577,7 +15608,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="25" t="s">
         <v>706</v>
       </c>
@@ -15627,7 +15658,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="25" t="s">
         <v>706</v>
       </c>
@@ -15677,7 +15708,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="25" t="s">
         <v>706</v>
       </c>
@@ -15727,7 +15758,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="25" t="s">
         <v>706</v>
       </c>
@@ -15777,7 +15808,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="25" t="s">
         <v>706</v>
       </c>
@@ -15827,7 +15858,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="25" t="s">
         <v>706</v>
       </c>
@@ -15877,7 +15908,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="25" t="s">
         <v>706</v>
       </c>
@@ -15927,7 +15958,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="25" t="s">
         <v>706</v>
       </c>
@@ -15977,7 +16008,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="25" t="s">
         <v>706</v>
       </c>
@@ -16027,7 +16058,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="25" t="s">
         <v>706</v>
       </c>
@@ -16077,7 +16108,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="25" t="s">
         <v>706</v>
       </c>
@@ -16127,7 +16158,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="25" t="s">
         <v>706</v>
       </c>
@@ -16177,7 +16208,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="25" t="s">
         <v>706</v>
       </c>
@@ -16227,7 +16258,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="25" t="s">
         <v>706</v>
       </c>
@@ -16277,7 +16308,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
         <v>706</v>
       </c>
@@ -16327,7 +16358,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="25" t="s">
         <v>706</v>
       </c>
@@ -16377,7 +16408,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="25" t="s">
         <v>706</v>
       </c>
@@ -16427,7 +16458,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="25" t="s">
         <v>706</v>
       </c>
@@ -16477,7 +16508,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="25" t="s">
         <v>706</v>
       </c>
@@ -16527,387 +16558,387 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="25"/>
       <c r="B201" s="25"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="25"/>
       <c r="B202" s="25"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="25"/>
       <c r="B203" s="25"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="25"/>
       <c r="B204" s="25"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="25"/>
       <c r="B205" s="25"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="25"/>
       <c r="B206" s="25"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="25"/>
       <c r="B207" s="25"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="25"/>
       <c r="B208" s="25"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="25"/>
       <c r="B209" s="25"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="25"/>
       <c r="B210" s="25"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="25"/>
       <c r="B211" s="25"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="25"/>
       <c r="B212" s="25"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="25"/>
       <c r="B213" s="25"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="25"/>
       <c r="B214" s="25"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="25"/>
       <c r="B215" s="25"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="25"/>
       <c r="B216" s="25"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="25"/>
       <c r="B217" s="25"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="25"/>
       <c r="B218" s="25"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="25"/>
       <c r="B219" s="25"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="25"/>
       <c r="B220" s="25"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="25"/>
       <c r="B221" s="25"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="25"/>
       <c r="B222" s="25"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="25"/>
       <c r="B223" s="25"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="25"/>
       <c r="B224" s="25"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="25"/>
       <c r="B225" s="25"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="25"/>
       <c r="B226" s="25"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="25"/>
       <c r="B227" s="25"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="25"/>
       <c r="B228" s="25"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="25"/>
       <c r="B229" s="25"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="25"/>
       <c r="B230" s="25"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="25"/>
       <c r="B231" s="25"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="25"/>
       <c r="B232" s="25"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="25"/>
       <c r="B233" s="25"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="25"/>
       <c r="B234" s="25"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="25"/>
       <c r="B235" s="25"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="25"/>
       <c r="B236" s="25"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="25"/>
       <c r="B237" s="25"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="25"/>
       <c r="B238" s="25"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="25"/>
       <c r="B239" s="25"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="25"/>
       <c r="B240" s="25"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="25"/>
       <c r="B241" s="25"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="25"/>
       <c r="B242" s="25"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="25"/>
       <c r="B243" s="25"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="25"/>
       <c r="B244" s="25"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="25"/>
       <c r="B245" s="25"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="25"/>
       <c r="B246" s="25"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="25"/>
       <c r="B247" s="25"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="25"/>
       <c r="B248" s="25"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="25"/>
       <c r="B249" s="25"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="25"/>
       <c r="B250" s="25"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="25"/>
       <c r="B251" s="25"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="25"/>
       <c r="B252" s="25"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="25"/>
       <c r="B253" s="25"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="25"/>
       <c r="B254" s="25"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="25"/>
       <c r="B255" s="25"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="25"/>
       <c r="B256" s="25"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="25"/>
       <c r="B257" s="25"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="25"/>
       <c r="B258" s="25"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="25"/>
       <c r="B259" s="25"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="25"/>
       <c r="B260" s="25"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="25"/>
       <c r="B261" s="25"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="25"/>
       <c r="B262" s="25"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="25"/>
       <c r="B263" s="25"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="25"/>
       <c r="B264" s="25"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="25"/>
       <c r="B265" s="25"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="25"/>
       <c r="B266" s="25"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="25"/>
       <c r="B267" s="25"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="25"/>
       <c r="B268" s="25"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="25"/>
       <c r="B269" s="25"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="25"/>
       <c r="B270" s="25"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="25"/>
       <c r="B271" s="25"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="25"/>
       <c r="B272" s="25"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="25"/>
       <c r="B273" s="25"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="25"/>
       <c r="B274" s="25"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="25"/>
       <c r="B275" s="25"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="25"/>
       <c r="B276" s="25"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="25"/>
       <c r="B277" s="25"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="25"/>
       <c r="B278" s="25"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="25"/>
       <c r="B279" s="25"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="25"/>
       <c r="B280" s="25"/>
     </row>
@@ -16927,33 +16958,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R608"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A566" sqref="A566"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.375" style="18" customWidth="1"/>
+    <col min="1" max="2" width="30.33203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="21.08203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="35" style="12" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="18" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="18" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" style="18" customWidth="1"/>
     <col min="12" max="12" width="15" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="17.875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="24.125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" style="18" customWidth="1"/>
     <col min="16" max="17" width="21.5" style="18" customWidth="1"/>
     <col min="18" max="18" width="33.5" style="18" customWidth="1"/>
     <col min="19" max="16384" width="11" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
@@ -17009,7 +17040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
@@ -17053,7 +17084,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -17097,7 +17128,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
@@ -17141,7 +17172,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
@@ -17185,7 +17216,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
@@ -17227,7 +17258,7 @@
       </c>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -17269,7 +17300,7 @@
       </c>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>57</v>
       </c>
@@ -17311,7 +17342,7 @@
       </c>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
@@ -17353,7 +17384,7 @@
       </c>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>57</v>
       </c>
@@ -17395,7 +17426,7 @@
       </c>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>57</v>
       </c>
@@ -17437,7 +17468,7 @@
       </c>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
@@ -17479,7 +17510,7 @@
       </c>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>57</v>
       </c>
@@ -17521,7 +17552,7 @@
       </c>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>57</v>
       </c>
@@ -17563,7 +17594,7 @@
       </c>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
@@ -17605,7 +17636,7 @@
       </c>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>57</v>
       </c>
@@ -17647,7 +17678,7 @@
       </c>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>151</v>
       </c>
@@ -17691,7 +17722,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>151</v>
       </c>
@@ -17735,7 +17766,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>151</v>
       </c>
@@ -17779,7 +17810,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>152</v>
       </c>
@@ -17823,7 +17854,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>152</v>
       </c>
@@ -17867,7 +17898,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>152</v>
       </c>
@@ -17911,7 +17942,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>152</v>
       </c>
@@ -17955,7 +17986,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>153</v>
       </c>
@@ -17999,7 +18030,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>153</v>
       </c>
@@ -18043,7 +18074,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>153</v>
       </c>
@@ -18087,7 +18118,7 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -18131,7 +18162,7 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>162</v>
       </c>
@@ -18175,7 +18206,7 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>162</v>
       </c>
@@ -18219,7 +18250,7 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>162</v>
       </c>
@@ -18263,7 +18294,7 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>162</v>
       </c>
@@ -18307,7 +18338,7 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>162</v>
       </c>
@@ -18351,7 +18382,7 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>163</v>
       </c>
@@ -18395,7 +18426,7 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>163</v>
       </c>
@@ -18441,7 +18472,7 @@
       </c>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>163</v>
       </c>
@@ -18487,7 +18518,7 @@
       </c>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>164</v>
       </c>
@@ -18533,7 +18564,7 @@
       </c>
       <c r="R36" s="10"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>164</v>
       </c>
@@ -18579,7 +18610,7 @@
       </c>
       <c r="R37" s="10"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>154</v>
       </c>
@@ -18625,7 +18656,7 @@
       </c>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>155</v>
       </c>
@@ -18671,7 +18702,7 @@
       </c>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>155</v>
       </c>
@@ -18717,7 +18748,7 @@
       </c>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>156</v>
       </c>
@@ -18763,7 +18794,7 @@
       </c>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>156</v>
       </c>
@@ -18809,7 +18840,7 @@
       </c>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>156</v>
       </c>
@@ -18855,7 +18886,7 @@
       </c>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>165</v>
       </c>
@@ -18901,7 +18932,7 @@
       </c>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>165</v>
       </c>
@@ -18947,7 +18978,7 @@
       </c>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>166</v>
       </c>
@@ -18993,7 +19024,7 @@
       </c>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>166</v>
       </c>
@@ -19039,7 +19070,7 @@
       </c>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>167</v>
       </c>
@@ -19085,7 +19116,7 @@
       </c>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>167</v>
       </c>
@@ -19131,7 +19162,7 @@
       </c>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>157</v>
       </c>
@@ -19177,7 +19208,7 @@
       </c>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>157</v>
       </c>
@@ -19223,7 +19254,7 @@
       </c>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>158</v>
       </c>
@@ -19269,7 +19300,7 @@
       </c>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>158</v>
       </c>
@@ -19315,7 +19346,7 @@
       </c>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>158</v>
       </c>
@@ -19361,7 +19392,7 @@
       </c>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>158</v>
       </c>
@@ -19405,7 +19436,7 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>158</v>
       </c>
@@ -19449,7 +19480,7 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>159</v>
       </c>
@@ -19493,7 +19524,7 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>159</v>
       </c>
@@ -19537,7 +19568,7 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>159</v>
       </c>
@@ -19581,7 +19612,7 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>159</v>
       </c>
@@ -19625,7 +19656,7 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>159</v>
       </c>
@@ -19669,7 +19700,7 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>168</v>
       </c>
@@ -19713,7 +19744,7 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>168</v>
       </c>
@@ -19757,7 +19788,7 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>168</v>
       </c>
@@ -19801,7 +19832,7 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>168</v>
       </c>
@@ -19845,7 +19876,7 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>169</v>
       </c>
@@ -19889,7 +19920,7 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>169</v>
       </c>
@@ -19933,7 +19964,7 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>170</v>
       </c>
@@ -19977,7 +20008,7 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>170</v>
       </c>
@@ -20021,7 +20052,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>171</v>
       </c>
@@ -20065,7 +20096,7 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>171</v>
       </c>
@@ -20109,7 +20140,7 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>171</v>
       </c>
@@ -20153,7 +20184,7 @@
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>172</v>
       </c>
@@ -20197,7 +20228,7 @@
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>172</v>
       </c>
@@ -20241,7 +20272,7 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>172</v>
       </c>
@@ -20285,7 +20316,7 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>172</v>
       </c>
@@ -20329,7 +20360,7 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>172</v>
       </c>
@@ -20373,7 +20404,7 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>173</v>
       </c>
@@ -20417,7 +20448,7 @@
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>173</v>
       </c>
@@ -20461,7 +20492,7 @@
       <c r="Q79" s="10"/>
       <c r="R79" s="10"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>173</v>
       </c>
@@ -20505,7 +20536,7 @@
       <c r="Q80" s="10"/>
       <c r="R80" s="10"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>173</v>
       </c>
@@ -20549,7 +20580,7 @@
       <c r="Q81" s="10"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>173</v>
       </c>
@@ -20593,7 +20624,7 @@
       <c r="Q82" s="10"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>173</v>
       </c>
@@ -20637,7 +20668,7 @@
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>173</v>
       </c>
@@ -20681,7 +20712,7 @@
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>174</v>
       </c>
@@ -20725,7 +20756,7 @@
       <c r="Q85" s="10"/>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>174</v>
       </c>
@@ -20769,7 +20800,7 @@
       <c r="Q86" s="10"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>174</v>
       </c>
@@ -20813,7 +20844,7 @@
       <c r="Q87" s="10"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>174</v>
       </c>
@@ -20857,7 +20888,7 @@
       <c r="Q88" s="10"/>
       <c r="R88" s="10"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>174</v>
       </c>
@@ -20901,7 +20932,7 @@
       <c r="Q89" s="10"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>175</v>
       </c>
@@ -20945,7 +20976,7 @@
       <c r="Q90" s="10"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>175</v>
       </c>
@@ -20989,7 +21020,7 @@
       <c r="Q91" s="10"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>175</v>
       </c>
@@ -21033,7 +21064,7 @@
       <c r="Q92" s="10"/>
       <c r="R92" s="10"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>176</v>
       </c>
@@ -21077,7 +21108,7 @@
       <c r="Q93" s="10"/>
       <c r="R93" s="10"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>177</v>
       </c>
@@ -21121,7 +21152,7 @@
       <c r="Q94" s="10"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>177</v>
       </c>
@@ -21165,7 +21196,7 @@
       <c r="Q95" s="10"/>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>177</v>
       </c>
@@ -21209,7 +21240,7 @@
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>177</v>
       </c>
@@ -21253,7 +21284,7 @@
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>178</v>
       </c>
@@ -21297,7 +21328,7 @@
       <c r="Q98" s="10"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>178</v>
       </c>
@@ -21341,7 +21372,7 @@
       <c r="Q99" s="10"/>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>178</v>
       </c>
@@ -21385,7 +21416,7 @@
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>178</v>
       </c>
@@ -21429,7 +21460,7 @@
       <c r="Q101" s="10"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>179</v>
       </c>
@@ -21473,7 +21504,7 @@
       <c r="Q102" s="10"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>179</v>
       </c>
@@ -21517,7 +21548,7 @@
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>179</v>
       </c>
@@ -21561,7 +21592,7 @@
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>179</v>
       </c>
@@ -21605,7 +21636,7 @@
       <c r="Q105" s="10"/>
       <c r="R105" s="10"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>179</v>
       </c>
@@ -21649,7 +21680,7 @@
       <c r="Q106" s="10"/>
       <c r="R106" s="10"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>180</v>
       </c>
@@ -21693,7 +21724,7 @@
       <c r="Q107" s="10"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>180</v>
       </c>
@@ -21737,7 +21768,7 @@
       <c r="Q108" s="10"/>
       <c r="R108" s="10"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>180</v>
       </c>
@@ -21781,7 +21812,7 @@
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>181</v>
       </c>
@@ -21825,7 +21856,7 @@
       <c r="Q110" s="10"/>
       <c r="R110" s="10"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>181</v>
       </c>
@@ -21869,7 +21900,7 @@
       <c r="Q111" s="10"/>
       <c r="R111" s="10"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>182</v>
       </c>
@@ -21913,7 +21944,7 @@
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>183</v>
       </c>
@@ -21957,7 +21988,7 @@
       <c r="Q113" s="10"/>
       <c r="R113" s="10"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>183</v>
       </c>
@@ -22001,7 +22032,7 @@
       <c r="Q114" s="10"/>
       <c r="R114" s="10"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>183</v>
       </c>
@@ -22045,7 +22076,7 @@
       <c r="Q115" s="10"/>
       <c r="R115" s="10"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>184</v>
       </c>
@@ -22089,7 +22120,7 @@
       <c r="Q116" s="10"/>
       <c r="R116" s="10"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>184</v>
       </c>
@@ -22133,7 +22164,7 @@
       <c r="Q117" s="10"/>
       <c r="R117" s="10"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>184</v>
       </c>
@@ -22177,7 +22208,7 @@
       <c r="Q118" s="10"/>
       <c r="R118" s="10"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>184</v>
       </c>
@@ -22221,7 +22252,7 @@
       <c r="Q119" s="10"/>
       <c r="R119" s="10"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>185</v>
       </c>
@@ -22265,7 +22296,7 @@
       <c r="Q120" s="10"/>
       <c r="R120" s="10"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>185</v>
       </c>
@@ -22309,7 +22340,7 @@
       <c r="Q121" s="10"/>
       <c r="R121" s="10"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>185</v>
       </c>
@@ -22353,7 +22384,7 @@
       <c r="Q122" s="10"/>
       <c r="R122" s="10"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>185</v>
       </c>
@@ -22397,7 +22428,7 @@
       <c r="Q123" s="10"/>
       <c r="R123" s="10"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>185</v>
       </c>
@@ -22441,7 +22472,7 @@
       <c r="Q124" s="10"/>
       <c r="R124" s="10"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>185</v>
       </c>
@@ -22485,7 +22516,7 @@
       <c r="Q125" s="10"/>
       <c r="R125" s="10"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>186</v>
       </c>
@@ -22529,7 +22560,7 @@
       <c r="Q126" s="10"/>
       <c r="R126" s="10"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>186</v>
       </c>
@@ -22573,7 +22604,7 @@
       <c r="Q127" s="10"/>
       <c r="R127" s="10"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
         <v>186</v>
       </c>
@@ -22617,7 +22648,7 @@
       <c r="Q128" s="10"/>
       <c r="R128" s="10"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>186</v>
       </c>
@@ -22661,7 +22692,7 @@
       <c r="Q129" s="10"/>
       <c r="R129" s="10"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>187</v>
       </c>
@@ -22705,7 +22736,7 @@
       <c r="Q130" s="10"/>
       <c r="R130" s="10"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>187</v>
       </c>
@@ -22749,7 +22780,7 @@
       <c r="Q131" s="10"/>
       <c r="R131" s="10"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>187</v>
       </c>
@@ -22793,7 +22824,7 @@
       <c r="Q132" s="10"/>
       <c r="R132" s="10"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>188</v>
       </c>
@@ -22837,7 +22868,7 @@
       <c r="Q133" s="10"/>
       <c r="R133" s="10"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
         <v>188</v>
       </c>
@@ -22881,7 +22912,7 @@
       <c r="Q134" s="10"/>
       <c r="R134" s="10"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>353</v>
       </c>
@@ -22927,7 +22958,7 @@
       <c r="Q135" s="10"/>
       <c r="R135" s="10"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
         <v>353</v>
       </c>
@@ -22973,7 +23004,7 @@
       <c r="Q136" s="10"/>
       <c r="R136" s="10"/>
     </row>
-    <row r="137" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
         <v>353</v>
       </c>
@@ -23019,7 +23050,7 @@
       <c r="Q137" s="10"/>
       <c r="R137" s="10"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
         <v>353</v>
       </c>
@@ -23065,7 +23096,7 @@
       <c r="Q138" s="10"/>
       <c r="R138" s="10"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>353</v>
       </c>
@@ -23111,7 +23142,7 @@
       <c r="Q139" s="10"/>
       <c r="R139" s="10"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
         <v>354</v>
       </c>
@@ -23157,7 +23188,7 @@
       <c r="Q140" s="10"/>
       <c r="R140" s="10"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
         <v>354</v>
       </c>
@@ -23203,7 +23234,7 @@
       <c r="Q141" s="10"/>
       <c r="R141" s="10"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
         <v>354</v>
       </c>
@@ -23249,7 +23280,7 @@
       <c r="Q142" s="10"/>
       <c r="R142" s="10"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
         <v>354</v>
       </c>
@@ -23295,7 +23326,7 @@
       <c r="Q143" s="10"/>
       <c r="R143" s="10"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
         <v>354</v>
       </c>
@@ -23341,7 +23372,7 @@
       <c r="Q144" s="10"/>
       <c r="R144" s="10"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>354</v>
       </c>
@@ -23387,7 +23418,7 @@
       <c r="Q145" s="10"/>
       <c r="R145" s="10"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>354</v>
       </c>
@@ -23433,7 +23464,7 @@
       <c r="Q146" s="10"/>
       <c r="R146" s="10"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
         <v>355</v>
       </c>
@@ -23479,7 +23510,7 @@
       <c r="Q147" s="10"/>
       <c r="R147" s="10"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
         <v>355</v>
       </c>
@@ -23525,7 +23556,7 @@
       <c r="Q148" s="10"/>
       <c r="R148" s="10"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>355</v>
       </c>
@@ -23571,7 +23602,7 @@
       <c r="Q149" s="10"/>
       <c r="R149" s="10"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
         <v>355</v>
       </c>
@@ -23617,7 +23648,7 @@
       <c r="Q150" s="10"/>
       <c r="R150" s="10"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>355</v>
       </c>
@@ -23663,7 +23694,7 @@
       <c r="Q151" s="10"/>
       <c r="R151" s="10"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
         <v>356</v>
       </c>
@@ -23709,7 +23740,7 @@
       <c r="Q152" s="10"/>
       <c r="R152" s="10"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
         <v>356</v>
       </c>
@@ -23755,7 +23786,7 @@
       <c r="Q153" s="10"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
         <v>356</v>
       </c>
@@ -23801,7 +23832,7 @@
       <c r="Q154" s="10"/>
       <c r="R154" s="10"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
         <v>356</v>
       </c>
@@ -23847,7 +23878,7 @@
       <c r="Q155" s="10"/>
       <c r="R155" s="10"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="10" t="s">
         <v>356</v>
       </c>
@@ -23893,7 +23924,7 @@
       <c r="Q156" s="10"/>
       <c r="R156" s="10"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
         <v>356</v>
       </c>
@@ -23939,7 +23970,7 @@
       <c r="Q157" s="10"/>
       <c r="R157" s="10"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="10" t="s">
         <v>357</v>
       </c>
@@ -23985,7 +24016,7 @@
       <c r="Q158" s="10"/>
       <c r="R158" s="10"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
         <v>357</v>
       </c>
@@ -24031,7 +24062,7 @@
       <c r="Q159" s="10"/>
       <c r="R159" s="10"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="10" t="s">
         <v>357</v>
       </c>
@@ -24077,7 +24108,7 @@
       <c r="Q160" s="10"/>
       <c r="R160" s="10"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
         <v>357</v>
       </c>
@@ -24123,7 +24154,7 @@
       <c r="Q161" s="10"/>
       <c r="R161" s="10"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
         <v>357</v>
       </c>
@@ -24169,7 +24200,7 @@
       <c r="Q162" s="10"/>
       <c r="R162" s="10"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
         <v>358</v>
       </c>
@@ -24215,7 +24246,7 @@
       <c r="Q163" s="10"/>
       <c r="R163" s="10"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
         <v>358</v>
       </c>
@@ -24261,7 +24292,7 @@
       <c r="Q164" s="10"/>
       <c r="R164" s="10"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
         <v>358</v>
       </c>
@@ -24307,7 +24338,7 @@
       <c r="Q165" s="10"/>
       <c r="R165" s="10"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
         <v>358</v>
       </c>
@@ -24353,7 +24384,7 @@
       <c r="Q166" s="10"/>
       <c r="R166" s="10"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
         <v>358</v>
       </c>
@@ -24399,7 +24430,7 @@
       <c r="Q167" s="10"/>
       <c r="R167" s="10"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="10" t="s">
         <v>358</v>
       </c>
@@ -24445,7 +24476,7 @@
       <c r="Q168" s="10"/>
       <c r="R168" s="10"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
         <v>359</v>
       </c>
@@ -24491,7 +24522,7 @@
       <c r="Q169" s="10"/>
       <c r="R169" s="10"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="10" t="s">
         <v>359</v>
       </c>
@@ -24537,7 +24568,7 @@
       <c r="Q170" s="10"/>
       <c r="R170" s="10"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>359</v>
       </c>
@@ -24583,7 +24614,7 @@
       <c r="Q171" s="10"/>
       <c r="R171" s="10"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
         <v>359</v>
       </c>
@@ -24629,7 +24660,7 @@
       <c r="Q172" s="10"/>
       <c r="R172" s="10"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
         <v>359</v>
       </c>
@@ -24675,7 +24706,7 @@
       <c r="Q173" s="10"/>
       <c r="R173" s="10"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="10" t="s">
         <v>447</v>
       </c>
@@ -24719,7 +24750,7 @@
       <c r="Q174" s="10"/>
       <c r="R174" s="10"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>447</v>
       </c>
@@ -24763,7 +24794,7 @@
       <c r="Q175" s="10"/>
       <c r="R175" s="10"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
         <v>447</v>
       </c>
@@ -24807,7 +24838,7 @@
       <c r="Q176" s="10"/>
       <c r="R176" s="10"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="10" t="s">
         <v>447</v>
       </c>
@@ -24851,7 +24882,7 @@
       <c r="Q177" s="10"/>
       <c r="R177" s="10"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="10" t="s">
         <v>448</v>
       </c>
@@ -24895,7 +24926,7 @@
       <c r="Q178" s="10"/>
       <c r="R178" s="10"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
         <v>448</v>
       </c>
@@ -24939,7 +24970,7 @@
       <c r="Q179" s="10"/>
       <c r="R179" s="10"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" s="10" t="s">
         <v>448</v>
       </c>
@@ -24983,7 +25014,7 @@
       <c r="Q180" s="10"/>
       <c r="R180" s="10"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" s="10" t="s">
         <v>448</v>
       </c>
@@ -25027,7 +25058,7 @@
       <c r="Q181" s="10"/>
       <c r="R181" s="10"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" s="10" t="s">
         <v>448</v>
       </c>
@@ -25071,7 +25102,7 @@
       <c r="Q182" s="10"/>
       <c r="R182" s="10"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
         <v>448</v>
       </c>
@@ -25115,7 +25146,7 @@
       <c r="Q183" s="10"/>
       <c r="R183" s="10"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="10" t="s">
         <v>448</v>
       </c>
@@ -25159,7 +25190,7 @@
       <c r="Q184" s="10"/>
       <c r="R184" s="10"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="10" t="s">
         <v>449</v>
       </c>
@@ -25203,7 +25234,7 @@
       <c r="Q185" s="10"/>
       <c r="R185" s="10"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" s="10" t="s">
         <v>449</v>
       </c>
@@ -25247,7 +25278,7 @@
       <c r="Q186" s="10"/>
       <c r="R186" s="10"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
         <v>449</v>
       </c>
@@ -25291,7 +25322,7 @@
       <c r="Q187" s="10"/>
       <c r="R187" s="10"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" s="10" t="s">
         <v>449</v>
       </c>
@@ -25335,7 +25366,7 @@
       <c r="Q188" s="10"/>
       <c r="R188" s="10"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
         <v>449</v>
       </c>
@@ -25379,7 +25410,7 @@
       <c r="Q189" s="10"/>
       <c r="R189" s="10"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" s="10" t="s">
         <v>449</v>
       </c>
@@ -25423,7 +25454,7 @@
       <c r="Q190" s="10"/>
       <c r="R190" s="10"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
         <v>449</v>
       </c>
@@ -25467,7 +25498,7 @@
       <c r="Q191" s="10"/>
       <c r="R191" s="10"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" s="10" t="s">
         <v>449</v>
       </c>
@@ -25511,7 +25542,7 @@
       <c r="Q192" s="10"/>
       <c r="R192" s="10"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" s="10" t="s">
         <v>449</v>
       </c>
@@ -25555,7 +25586,7 @@
       <c r="Q193" s="10"/>
       <c r="R193" s="10"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194" s="10" t="s">
         <v>450</v>
       </c>
@@ -25599,7 +25630,7 @@
       <c r="Q194" s="10"/>
       <c r="R194" s="10"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195" s="10" t="s">
         <v>450</v>
       </c>
@@ -25643,7 +25674,7 @@
       <c r="Q195" s="10"/>
       <c r="R195" s="10"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
         <v>450</v>
       </c>
@@ -25687,7 +25718,7 @@
       <c r="Q196" s="10"/>
       <c r="R196" s="10"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" s="10" t="s">
         <v>450</v>
       </c>
@@ -25731,7 +25762,7 @@
       <c r="Q197" s="10"/>
       <c r="R197" s="10"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" s="10" t="s">
         <v>451</v>
       </c>
@@ -25775,7 +25806,7 @@
       <c r="Q198" s="10"/>
       <c r="R198" s="10"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" s="10" t="s">
         <v>451</v>
       </c>
@@ -25819,7 +25850,7 @@
       <c r="Q199" s="10"/>
       <c r="R199" s="10"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" s="10" t="s">
         <v>451</v>
       </c>
@@ -25863,7 +25894,7 @@
       <c r="Q200" s="10"/>
       <c r="R200" s="10"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" s="10" t="s">
         <v>451</v>
       </c>
@@ -25907,7 +25938,7 @@
       <c r="Q201" s="10"/>
       <c r="R201" s="10"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
         <v>451</v>
       </c>
@@ -25951,7 +25982,7 @@
       <c r="Q202" s="10"/>
       <c r="R202" s="10"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" s="10" t="s">
         <v>451</v>
       </c>
@@ -25995,7 +26026,7 @@
       <c r="Q203" s="10"/>
       <c r="R203" s="10"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" s="10" t="s">
         <v>451</v>
       </c>
@@ -26039,7 +26070,7 @@
       <c r="Q204" s="10"/>
       <c r="R204" s="10"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" s="10" t="s">
         <v>452</v>
       </c>
@@ -26083,7 +26114,7 @@
       <c r="Q205" s="10"/>
       <c r="R205" s="10"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="10" t="s">
         <v>452</v>
       </c>
@@ -26127,7 +26158,7 @@
       <c r="Q206" s="10"/>
       <c r="R206" s="10"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" s="10" t="s">
         <v>452</v>
       </c>
@@ -26171,7 +26202,7 @@
       <c r="Q207" s="10"/>
       <c r="R207" s="10"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" s="10" t="s">
         <v>452</v>
       </c>
@@ -26215,7 +26246,7 @@
       <c r="Q208" s="10"/>
       <c r="R208" s="10"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209" s="10" t="s">
         <v>452</v>
       </c>
@@ -26259,7 +26290,7 @@
       <c r="Q209" s="10"/>
       <c r="R209" s="10"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A210" s="10" t="s">
         <v>452</v>
       </c>
@@ -26303,7 +26334,7 @@
       <c r="Q210" s="10"/>
       <c r="R210" s="10"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A211" s="10" t="s">
         <v>453</v>
       </c>
@@ -26347,7 +26378,7 @@
       <c r="Q211" s="10"/>
       <c r="R211" s="10"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
         <v>453</v>
       </c>
@@ -26391,7 +26422,7 @@
       <c r="Q212" s="10"/>
       <c r="R212" s="10"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A213" s="10" t="s">
         <v>453</v>
       </c>
@@ -26435,7 +26466,7 @@
       <c r="Q213" s="10"/>
       <c r="R213" s="10"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A214" s="10" t="s">
         <v>453</v>
       </c>
@@ -26479,7 +26510,7 @@
       <c r="Q214" s="10"/>
       <c r="R214" s="10"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
         <v>453</v>
       </c>
@@ -26523,7 +26554,7 @@
       <c r="Q215" s="10"/>
       <c r="R215" s="10"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A216" s="10" t="s">
         <v>453</v>
       </c>
@@ -26567,7 +26598,7 @@
       <c r="Q216" s="10"/>
       <c r="R216" s="10"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217" s="10" t="s">
         <v>453</v>
       </c>
@@ -26611,7 +26642,7 @@
       <c r="Q217" s="10"/>
       <c r="R217" s="10"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218" s="10" t="s">
         <v>453</v>
       </c>
@@ -26655,7 +26686,7 @@
       <c r="Q218" s="10"/>
       <c r="R218" s="10"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A219" s="10" t="s">
         <v>454</v>
       </c>
@@ -26699,7 +26730,7 @@
       <c r="Q219" s="10"/>
       <c r="R219" s="10"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
         <v>454</v>
       </c>
@@ -26743,7 +26774,7 @@
       <c r="Q220" s="10"/>
       <c r="R220" s="10"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A221" s="10" t="s">
         <v>454</v>
       </c>
@@ -26787,7 +26818,7 @@
       <c r="Q221" s="10"/>
       <c r="R221" s="10"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222" s="10" t="s">
         <v>454</v>
       </c>
@@ -26831,7 +26862,7 @@
       <c r="Q222" s="10"/>
       <c r="R222" s="10"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223" s="10" t="s">
         <v>454</v>
       </c>
@@ -26875,7 +26906,7 @@
       <c r="Q223" s="10"/>
       <c r="R223" s="10"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" s="10" t="s">
         <v>454</v>
       </c>
@@ -26919,7 +26950,7 @@
       <c r="Q224" s="10"/>
       <c r="R224" s="10"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A225" s="10" t="s">
         <v>455</v>
       </c>
@@ -26963,7 +26994,7 @@
       <c r="Q225" s="10"/>
       <c r="R225" s="10"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226" s="10" t="s">
         <v>455</v>
       </c>
@@ -27007,7 +27038,7 @@
       <c r="Q226" s="10"/>
       <c r="R226" s="10"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A227" s="10" t="s">
         <v>455</v>
       </c>
@@ -27051,7 +27082,7 @@
       <c r="Q227" s="10"/>
       <c r="R227" s="10"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A228" s="10" t="s">
         <v>455</v>
       </c>
@@ -27095,7 +27126,7 @@
       <c r="Q228" s="10"/>
       <c r="R228" s="10"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A229" s="10" t="s">
         <v>455</v>
       </c>
@@ -27139,7 +27170,7 @@
       <c r="Q229" s="10"/>
       <c r="R229" s="10"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230" s="10" t="s">
         <v>455</v>
       </c>
@@ -27183,7 +27214,7 @@
       <c r="Q230" s="10"/>
       <c r="R230" s="10"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231" s="10" t="s">
         <v>456</v>
       </c>
@@ -27227,7 +27258,7 @@
       <c r="Q231" s="10"/>
       <c r="R231" s="10"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A232" s="10" t="s">
         <v>456</v>
       </c>
@@ -27271,7 +27302,7 @@
       <c r="Q232" s="10"/>
       <c r="R232" s="10"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A233" s="10" t="s">
         <v>457</v>
       </c>
@@ -27315,7 +27346,7 @@
       <c r="Q233" s="10"/>
       <c r="R233" s="10"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A234" s="10" t="s">
         <v>457</v>
       </c>
@@ -27359,7 +27390,7 @@
       <c r="Q234" s="10"/>
       <c r="R234" s="10"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A235" s="10" t="s">
         <v>458</v>
       </c>
@@ -27403,7 +27434,7 @@
       <c r="Q235" s="10"/>
       <c r="R235" s="10"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A236" s="10" t="s">
         <v>458</v>
       </c>
@@ -27447,7 +27478,7 @@
       <c r="Q236" s="10"/>
       <c r="R236" s="10"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A237" s="10" t="s">
         <v>458</v>
       </c>
@@ -27491,7 +27522,7 @@
       <c r="Q237" s="10"/>
       <c r="R237" s="10"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238" s="10" t="s">
         <v>458</v>
       </c>
@@ -27535,7 +27566,7 @@
       <c r="Q238" s="10"/>
       <c r="R238" s="10"/>
     </row>
-    <row r="239" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="10" t="s">
         <v>458</v>
       </c>
@@ -27579,7 +27610,7 @@
       <c r="Q239" s="10"/>
       <c r="R239" s="10"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240" s="10" t="s">
         <v>572</v>
       </c>
@@ -27623,7 +27654,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" s="10" t="s">
         <v>572</v>
       </c>
@@ -27667,7 +27698,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242" s="10" t="s">
         <v>572</v>
       </c>
@@ -27711,7 +27742,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243" s="10" t="s">
         <v>572</v>
       </c>
@@ -27755,7 +27786,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244" s="10" t="s">
         <v>572</v>
       </c>
@@ -27799,7 +27830,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" s="10" t="s">
         <v>572</v>
       </c>
@@ -27843,7 +27874,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" s="10" t="s">
         <v>572</v>
       </c>
@@ -27887,7 +27918,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" s="10" t="s">
         <v>572</v>
       </c>
@@ -27927,7 +27958,7 @@
       <c r="Q247" s="10"/>
       <c r="R247" s="10"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248" s="10" t="s">
         <v>572</v>
       </c>
@@ -27967,7 +27998,7 @@
       <c r="Q248" s="10"/>
       <c r="R248" s="10"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249" s="10" t="s">
         <v>572</v>
       </c>
@@ -28007,7 +28038,7 @@
       <c r="Q249" s="10"/>
       <c r="R249" s="10"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250" s="10" t="s">
         <v>572</v>
       </c>
@@ -28047,7 +28078,7 @@
       <c r="Q250" s="10"/>
       <c r="R250" s="10"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251" s="10" t="s">
         <v>572</v>
       </c>
@@ -28087,7 +28118,7 @@
       <c r="Q251" s="10"/>
       <c r="R251" s="10"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252" s="10" t="s">
         <v>572</v>
       </c>
@@ -28127,7 +28158,7 @@
       <c r="Q252" s="10"/>
       <c r="R252" s="10"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253" s="10" t="s">
         <v>673</v>
       </c>
@@ -28162,7 +28193,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254" s="10" t="s">
         <v>673</v>
       </c>
@@ -28197,7 +28228,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A255" s="10" t="s">
         <v>673</v>
       </c>
@@ -28232,7 +28263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A256" s="10" t="s">
         <v>673</v>
       </c>
@@ -28267,7 +28298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="10" t="s">
         <v>673</v>
       </c>
@@ -28302,7 +28333,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="10" t="s">
         <v>673</v>
       </c>
@@ -28337,7 +28368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="10" t="s">
         <v>673</v>
       </c>
@@ -28372,7 +28403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="10" t="s">
         <v>673</v>
       </c>
@@ -28407,7 +28438,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="10" t="s">
         <v>673</v>
       </c>
@@ -28442,7 +28473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="10" t="s">
         <v>673</v>
       </c>
@@ -28477,7 +28508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="10" t="s">
         <v>673</v>
       </c>
@@ -28512,7 +28543,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="10" t="s">
         <v>673</v>
       </c>
@@ -28547,7 +28578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="10" t="s">
         <v>673</v>
       </c>
@@ -28582,7 +28613,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="10" t="s">
         <v>673</v>
       </c>
@@ -28617,7 +28648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="10" t="s">
         <v>674</v>
       </c>
@@ -28652,7 +28683,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="10" t="s">
         <v>674</v>
       </c>
@@ -28687,7 +28718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="10" t="s">
         <v>674</v>
       </c>
@@ -28722,7 +28753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="10" t="s">
         <v>674</v>
       </c>
@@ -28757,7 +28788,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="10" t="s">
         <v>674</v>
       </c>
@@ -28792,7 +28823,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="10" t="s">
         <v>674</v>
       </c>
@@ -28827,7 +28858,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="10" t="s">
         <v>674</v>
       </c>
@@ -28862,7 +28893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="10" t="s">
         <v>674</v>
       </c>
@@ -28897,7 +28928,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="10" t="s">
         <v>674</v>
       </c>
@@ -28932,7 +28963,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="10" t="s">
         <v>674</v>
       </c>
@@ -28967,7 +28998,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="10" t="s">
         <v>674</v>
       </c>
@@ -29002,7 +29033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="10" t="s">
         <v>674</v>
       </c>
@@ -29037,12 +29068,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B279" s="10" t="s">
-        <v>693</v>
+      <c r="B279" s="6" t="s">
+        <v>1321</v>
       </c>
       <c r="C279" s="10" t="s">
         <v>61</v>
@@ -29072,12 +29103,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B280" s="10" t="s">
-        <v>694</v>
+      <c r="B280" s="6" t="s">
+        <v>1322</v>
       </c>
       <c r="C280" s="10" t="s">
         <v>61</v>
@@ -29107,12 +29138,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B281" s="10" t="s">
-        <v>695</v>
+      <c r="B281" s="6" t="s">
+        <v>1323</v>
       </c>
       <c r="C281" s="10" t="s">
         <v>61</v>
@@ -29142,12 +29173,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B282" s="10" t="s">
-        <v>696</v>
+      <c r="B282" s="6" t="s">
+        <v>1324</v>
       </c>
       <c r="C282" s="10" t="s">
         <v>61</v>
@@ -29177,12 +29208,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B283" s="10" t="s">
-        <v>697</v>
+      <c r="B283" s="6" t="s">
+        <v>1325</v>
       </c>
       <c r="C283" s="10" t="s">
         <v>61</v>
@@ -29212,12 +29243,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B284" s="10" t="s">
-        <v>698</v>
+      <c r="B284" s="6" t="s">
+        <v>1326</v>
       </c>
       <c r="C284" s="10" t="s">
         <v>61</v>
@@ -29247,12 +29278,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B285" s="10" t="s">
-        <v>699</v>
+      <c r="B285" s="6" t="s">
+        <v>1327</v>
       </c>
       <c r="C285" s="10" t="s">
         <v>61</v>
@@ -29282,12 +29313,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B286" s="10" t="s">
-        <v>700</v>
+      <c r="B286" s="6" t="s">
+        <v>1328</v>
       </c>
       <c r="C286" s="10" t="s">
         <v>61</v>
@@ -29317,12 +29348,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B287" s="10" t="s">
-        <v>701</v>
+      <c r="B287" s="6" t="s">
+        <v>1329</v>
       </c>
       <c r="C287" s="10" t="s">
         <v>61</v>
@@ -29352,12 +29383,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B288" s="10" t="s">
-        <v>702</v>
+      <c r="B288" s="6" t="s">
+        <v>1330</v>
       </c>
       <c r="C288" s="10" t="s">
         <v>61</v>
@@ -29387,12 +29418,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A289" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B289" s="10" t="s">
-        <v>703</v>
+      <c r="B289" s="6" t="s">
+        <v>1331</v>
       </c>
       <c r="C289" s="10" t="s">
         <v>61</v>
@@ -29422,12 +29453,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A290" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B290" s="10" t="s">
-        <v>704</v>
+      <c r="B290" s="6" t="s">
+        <v>1332</v>
       </c>
       <c r="C290" s="10" t="s">
         <v>61</v>
@@ -29457,7 +29488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A291" s="10" t="s">
         <v>711</v>
       </c>
@@ -29489,7 +29520,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A292" s="10" t="s">
         <v>711</v>
       </c>
@@ -29521,7 +29552,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>712</v>
       </c>
@@ -29553,7 +29584,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>712</v>
       </c>
@@ -29585,7 +29616,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>712</v>
       </c>
@@ -29617,7 +29648,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>712</v>
       </c>
@@ -29649,7 +29680,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>713</v>
       </c>
@@ -29681,7 +29712,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>713</v>
       </c>
@@ -29713,7 +29744,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>713</v>
       </c>
@@ -29745,7 +29776,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>713</v>
       </c>
@@ -29777,7 +29808,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>713</v>
       </c>
@@ -29809,7 +29840,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A302" s="6" t="s">
         <v>714</v>
       </c>
@@ -29841,7 +29872,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>714</v>
       </c>
@@ -29873,7 +29904,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A304" s="6" t="s">
         <v>714</v>
       </c>
@@ -29905,7 +29936,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>714</v>
       </c>
@@ -29937,7 +29968,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>715</v>
       </c>
@@ -29969,7 +30000,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>715</v>
       </c>
@@ -30001,7 +30032,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>716</v>
       </c>
@@ -30033,7 +30064,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>717</v>
       </c>
@@ -30065,7 +30096,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>717</v>
       </c>
@@ -30097,7 +30128,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>717</v>
       </c>
@@ -30129,7 +30160,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A312" s="6" t="s">
         <v>717</v>
       </c>
@@ -30161,7 +30192,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A313" s="6" t="s">
         <v>718</v>
       </c>
@@ -30193,7 +30224,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A314" s="6" t="s">
         <v>718</v>
       </c>
@@ -30225,7 +30256,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>718</v>
       </c>
@@ -30257,7 +30288,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
         <v>718</v>
       </c>
@@ -30289,7 +30320,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>718</v>
       </c>
@@ -30321,7 +30352,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
         <v>719</v>
       </c>
@@ -30353,7 +30384,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
         <v>719</v>
       </c>
@@ -30385,7 +30416,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
         <v>719</v>
       </c>
@@ -30417,7 +30448,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
         <v>719</v>
       </c>
@@ -30449,7 +30480,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
         <v>719</v>
       </c>
@@ -30481,7 +30512,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>719</v>
       </c>
@@ -30513,7 +30544,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A324" s="6" t="s">
         <v>720</v>
       </c>
@@ -30545,7 +30576,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>720</v>
       </c>
@@ -30577,7 +30608,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A326" s="6" t="s">
         <v>720</v>
       </c>
@@ -30609,7 +30640,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>720</v>
       </c>
@@ -30641,7 +30672,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A328" s="6" t="s">
         <v>721</v>
       </c>
@@ -30673,7 +30704,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>721</v>
       </c>
@@ -30705,7 +30736,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A330" s="6" t="s">
         <v>721</v>
       </c>
@@ -30737,7 +30768,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
         <v>722</v>
       </c>
@@ -30769,7 +30800,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A332" s="6" t="s">
         <v>722</v>
       </c>
@@ -30801,7 +30832,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A333" s="6" t="s">
         <v>723</v>
       </c>
@@ -30833,7 +30864,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A334" s="6" t="s">
         <v>723</v>
       </c>
@@ -30865,7 +30896,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A335" s="10" t="s">
         <v>724</v>
       </c>
@@ -30897,7 +30928,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A336" s="10" t="s">
         <v>724</v>
       </c>
@@ -30929,7 +30960,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A337" s="10" t="s">
         <v>724</v>
       </c>
@@ -30961,7 +30992,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A338" s="10" t="s">
         <v>725</v>
       </c>
@@ -30993,7 +31024,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A339" s="10" t="s">
         <v>725</v>
       </c>
@@ -31025,7 +31056,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A340" s="10" t="s">
         <v>725</v>
       </c>
@@ -31057,7 +31088,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A341" s="10" t="s">
         <v>726</v>
       </c>
@@ -31089,7 +31120,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A342" s="10" t="s">
         <v>726</v>
       </c>
@@ -31121,7 +31152,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A343" s="10" t="s">
         <v>727</v>
       </c>
@@ -31153,7 +31184,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A344" s="10" t="s">
         <v>728</v>
       </c>
@@ -31185,7 +31216,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A345" s="10" t="s">
         <v>729</v>
       </c>
@@ -31217,7 +31248,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A346" s="10" t="s">
         <v>730</v>
       </c>
@@ -31249,7 +31280,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A347" s="10" t="s">
         <v>731</v>
       </c>
@@ -31281,7 +31312,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A348" s="10" t="s">
         <v>732</v>
       </c>
@@ -31313,7 +31344,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A349" s="10" t="s">
         <v>733</v>
       </c>
@@ -31345,7 +31376,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A350" s="10" t="s">
         <v>733</v>
       </c>
@@ -31377,7 +31408,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A351" s="10" t="s">
         <v>733</v>
       </c>
@@ -31409,7 +31440,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A352" s="10" t="s">
         <v>733</v>
       </c>
@@ -31441,7 +31472,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A353" s="10" t="s">
         <v>733</v>
       </c>
@@ -31473,7 +31504,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A354" s="10" t="s">
         <v>734</v>
       </c>
@@ -31505,7 +31536,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>735</v>
       </c>
@@ -31537,7 +31568,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A356" s="6" t="s">
         <v>735</v>
       </c>
@@ -31569,7 +31600,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>735</v>
       </c>
@@ -31601,7 +31632,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A358" s="6" t="s">
         <v>736</v>
       </c>
@@ -31633,7 +31664,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>736</v>
       </c>
@@ -31665,7 +31696,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A360" s="6" t="s">
         <v>737</v>
       </c>
@@ -31697,7 +31728,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A361" s="6" t="s">
         <v>738</v>
       </c>
@@ -31729,7 +31760,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A362" s="6" t="s">
         <v>738</v>
       </c>
@@ -31761,7 +31792,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A363" s="6" t="s">
         <v>739</v>
       </c>
@@ -31793,7 +31824,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A364" s="6" t="s">
         <v>739</v>
       </c>
@@ -31825,7 +31856,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A365" s="6" t="s">
         <v>740</v>
       </c>
@@ -31857,7 +31888,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A366" s="6" t="s">
         <v>741</v>
       </c>
@@ -31889,7 +31920,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A367" s="6" t="s">
         <v>741</v>
       </c>
@@ -31921,7 +31952,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A368" s="6" t="s">
         <v>742</v>
       </c>
@@ -31953,7 +31984,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A369" s="6" t="s">
         <v>742</v>
       </c>
@@ -31985,7 +32016,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A370" s="6" t="s">
         <v>743</v>
       </c>
@@ -32017,7 +32048,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A371" s="6" t="s">
         <v>743</v>
       </c>
@@ -32049,7 +32080,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A372" s="6" t="s">
         <v>744</v>
       </c>
@@ -32081,7 +32112,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A373" s="6" t="s">
         <v>744</v>
       </c>
@@ -32113,7 +32144,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A374" s="6" t="s">
         <v>745</v>
       </c>
@@ -32145,7 +32176,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A375" s="6" t="s">
         <v>745</v>
       </c>
@@ -32177,7 +32208,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A376" s="6" t="s">
         <v>746</v>
       </c>
@@ -32209,7 +32240,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>746</v>
       </c>
@@ -32241,7 +32272,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
         <v>747</v>
       </c>
@@ -32273,7 +32304,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>748</v>
       </c>
@@ -32305,7 +32336,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A380" s="6" t="s">
         <v>749</v>
       </c>
@@ -32337,7 +32368,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>749</v>
       </c>
@@ -32369,7 +32400,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A382" s="6" t="s">
         <v>750</v>
       </c>
@@ -32401,7 +32432,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
         <v>750</v>
       </c>
@@ -32433,7 +32464,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A384" s="6" t="s">
         <v>750</v>
       </c>
@@ -32465,7 +32496,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>751</v>
       </c>
@@ -32497,7 +32528,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A386" s="6" t="s">
         <v>751</v>
       </c>
@@ -32529,7 +32560,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>751</v>
       </c>
@@ -32561,7 +32592,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A388" s="6" t="s">
         <v>751</v>
       </c>
@@ -32593,7 +32624,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>752</v>
       </c>
@@ -32625,7 +32656,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A390" s="6" t="s">
         <v>752</v>
       </c>
@@ -32657,7 +32688,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>752</v>
       </c>
@@ -32689,7 +32720,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A392" s="6" t="s">
         <v>752</v>
       </c>
@@ -32721,7 +32752,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A393" s="6" t="s">
         <v>753</v>
       </c>
@@ -32753,7 +32784,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A394" s="6" t="s">
         <v>753</v>
       </c>
@@ -32785,7 +32816,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A395" s="6" t="s">
         <v>753</v>
       </c>
@@ -32817,7 +32848,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A396" s="6" t="s">
         <v>754</v>
       </c>
@@ -32849,7 +32880,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A397" s="6" t="s">
         <v>755</v>
       </c>
@@ -32881,7 +32912,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A398" s="6" t="s">
         <v>756</v>
       </c>
@@ -32913,7 +32944,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A399" s="6" t="s">
         <v>757</v>
       </c>
@@ -32945,7 +32976,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A400" s="10" t="s">
         <v>758</v>
       </c>
@@ -32977,7 +33008,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A401" s="10" t="s">
         <v>759</v>
       </c>
@@ -33009,7 +33040,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A402" s="10" t="s">
         <v>760</v>
       </c>
@@ -33041,7 +33072,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A403" s="10" t="s">
         <v>761</v>
       </c>
@@ -33073,7 +33104,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A404" s="10" t="s">
         <v>762</v>
       </c>
@@ -33105,7 +33136,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A405" s="10" t="s">
         <v>763</v>
       </c>
@@ -33137,7 +33168,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A406" s="10" t="s">
         <v>763</v>
       </c>
@@ -33169,7 +33200,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A407" s="10" t="s">
         <v>763</v>
       </c>
@@ -33201,7 +33232,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A408" s="10" t="s">
         <v>764</v>
       </c>
@@ -33233,7 +33264,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A409" s="10" t="s">
         <v>764</v>
       </c>
@@ -33265,7 +33296,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A410" s="10" t="s">
         <v>764</v>
       </c>
@@ -33297,7 +33328,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A411" s="10" t="s">
         <v>764</v>
       </c>
@@ -33329,7 +33360,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A412" s="10" t="s">
         <v>765</v>
       </c>
@@ -33361,7 +33392,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A413" s="10" t="s">
         <v>765</v>
       </c>
@@ -33393,7 +33424,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A414" s="10" t="s">
         <v>765</v>
       </c>
@@ -33425,7 +33456,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A415" s="10" t="s">
         <v>765</v>
       </c>
@@ -33457,7 +33488,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A416" s="10" t="s">
         <v>766</v>
       </c>
@@ -33489,7 +33520,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A417" s="10" t="s">
         <v>766</v>
       </c>
@@ -33521,7 +33552,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A418" s="10" t="s">
         <v>766</v>
       </c>
@@ -33553,7 +33584,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A419" s="10" t="s">
         <v>766</v>
       </c>
@@ -33585,7 +33616,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A420" s="10" t="s">
         <v>767</v>
       </c>
@@ -33617,7 +33648,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A421" s="10" t="s">
         <v>767</v>
       </c>
@@ -33649,7 +33680,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A422" s="10" t="s">
         <v>767</v>
       </c>
@@ -33681,7 +33712,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A423" s="10" t="s">
         <v>767</v>
       </c>
@@ -33713,7 +33744,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A424" s="10" t="s">
         <v>767</v>
       </c>
@@ -33745,7 +33776,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A425" s="10" t="s">
         <v>768</v>
       </c>
@@ -33777,7 +33808,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A426" s="10" t="s">
         <v>768</v>
       </c>
@@ -33809,7 +33840,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A427" s="10" t="s">
         <v>768</v>
       </c>
@@ -33841,7 +33872,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A428" s="10" t="s">
         <v>768</v>
       </c>
@@ -33873,7 +33904,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A429" s="10" t="s">
         <v>769</v>
       </c>
@@ -33905,7 +33936,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A430" s="10" t="s">
         <v>769</v>
       </c>
@@ -33937,7 +33968,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A431" s="10" t="s">
         <v>769</v>
       </c>
@@ -33969,7 +34000,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A432" s="10" t="s">
         <v>770</v>
       </c>
@@ -34001,7 +34032,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A433" s="10" t="s">
         <v>770</v>
       </c>
@@ -34033,7 +34064,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A434" s="10" t="s">
         <v>770</v>
       </c>
@@ -34065,7 +34096,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A435" s="10" t="s">
         <v>770</v>
       </c>
@@ -34097,7 +34128,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A436" s="10" t="s">
         <v>771</v>
       </c>
@@ -34129,7 +34160,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A437" s="10" t="s">
         <v>771</v>
       </c>
@@ -34161,7 +34192,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A438" s="10" t="s">
         <v>771</v>
       </c>
@@ -34193,7 +34224,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A439" s="10" t="s">
         <v>771</v>
       </c>
@@ -34225,7 +34256,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A440" s="10" t="s">
         <v>771</v>
       </c>
@@ -34257,7 +34288,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A441" s="10" t="s">
         <v>772</v>
       </c>
@@ -34289,7 +34320,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A442" s="10" t="s">
         <v>772</v>
       </c>
@@ -34321,7 +34352,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A443" s="10" t="s">
         <v>772</v>
       </c>
@@ -34353,7 +34384,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A444" s="10" t="s">
         <v>772</v>
       </c>
@@ -34385,7 +34416,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A445" s="10" t="s">
         <v>772</v>
       </c>
@@ -34417,7 +34448,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A446" s="10" t="s">
         <v>772</v>
       </c>
@@ -34449,7 +34480,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A447" s="10" t="s">
         <v>773</v>
       </c>
@@ -34481,7 +34512,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A448" s="10" t="s">
         <v>773</v>
       </c>
@@ -34513,7 +34544,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A449" s="10" t="s">
         <v>773</v>
       </c>
@@ -34545,7 +34576,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A450" s="10" t="s">
         <v>773</v>
       </c>
@@ -34577,7 +34608,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A451" s="10" t="s">
         <v>773</v>
       </c>
@@ -34609,7 +34640,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A452" s="10" t="s">
         <v>774</v>
       </c>
@@ -34641,7 +34672,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A453" s="10" t="s">
         <v>774</v>
       </c>
@@ -34673,7 +34704,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A454" s="10" t="s">
         <v>774</v>
       </c>
@@ -34705,7 +34736,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A455" s="10" t="s">
         <v>774</v>
       </c>
@@ -34737,7 +34768,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A456" s="10" t="s">
         <v>774</v>
       </c>
@@ -34769,7 +34800,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A457" s="10" t="s">
         <v>775</v>
       </c>
@@ -34801,7 +34832,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A458" s="10" t="s">
         <v>775</v>
       </c>
@@ -34833,7 +34864,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A459" s="10" t="s">
         <v>775</v>
       </c>
@@ -34865,7 +34896,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A460" s="10" t="s">
         <v>775</v>
       </c>
@@ -34897,7 +34928,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A461" s="10" t="s">
         <v>775</v>
       </c>
@@ -34929,7 +34960,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A462" s="10" t="s">
         <v>775</v>
       </c>
@@ -34961,7 +34992,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A463" s="10" t="s">
         <v>776</v>
       </c>
@@ -34993,7 +35024,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A464" s="10" t="s">
         <v>776</v>
       </c>
@@ -35025,7 +35056,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A465" s="10" t="s">
         <v>776</v>
       </c>
@@ -35057,7 +35088,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A466" s="10" t="s">
         <v>776</v>
       </c>
@@ -35089,7 +35120,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A467" s="10" t="s">
         <v>776</v>
       </c>
@@ -35121,7 +35152,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A468" s="10" t="s">
         <v>776</v>
       </c>
@@ -35153,7 +35184,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A469" s="10" t="s">
         <v>777</v>
       </c>
@@ -35185,7 +35216,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A470" s="6" t="s">
         <v>778</v>
       </c>
@@ -35217,7 +35248,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A471" s="6" t="s">
         <v>778</v>
       </c>
@@ -35249,7 +35280,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A472" s="6" t="s">
         <v>779</v>
       </c>
@@ -35281,7 +35312,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A473" s="6" t="s">
         <v>779</v>
       </c>
@@ -35313,7 +35344,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A474" s="6" t="s">
         <v>780</v>
       </c>
@@ -35345,7 +35376,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A475" s="6" t="s">
         <v>780</v>
       </c>
@@ -35377,7 +35408,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A476" s="6" t="s">
         <v>780</v>
       </c>
@@ -35409,7 +35440,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A477" s="6" t="s">
         <v>780</v>
       </c>
@@ -35441,7 +35472,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A478" s="6" t="s">
         <v>780</v>
       </c>
@@ -35473,7 +35504,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A479" s="6" t="s">
         <v>781</v>
       </c>
@@ -35505,7 +35536,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A480" s="6" t="s">
         <v>781</v>
       </c>
@@ -35537,7 +35568,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A481" s="6" t="s">
         <v>781</v>
       </c>
@@ -35569,7 +35600,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A482" s="6" t="s">
         <v>781</v>
       </c>
@@ -35601,7 +35632,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A483" s="6" t="s">
         <v>781</v>
       </c>
@@ -35633,7 +35664,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A484" s="6" t="s">
         <v>782</v>
       </c>
@@ -35665,7 +35696,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A485" s="6" t="s">
         <v>782</v>
       </c>
@@ -35697,7 +35728,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A486" s="6" t="s">
         <v>782</v>
       </c>
@@ -35729,7 +35760,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A487" s="6" t="s">
         <v>782</v>
       </c>
@@ -35761,7 +35792,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A488" s="6" t="s">
         <v>782</v>
       </c>
@@ -35793,7 +35824,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A489" s="6" t="s">
         <v>782</v>
       </c>
@@ -35825,7 +35856,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A490" s="6" t="s">
         <v>783</v>
       </c>
@@ -35857,7 +35888,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A491" s="6" t="s">
         <v>783</v>
       </c>
@@ -35889,7 +35920,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A492" s="6" t="s">
         <v>783</v>
       </c>
@@ -35921,7 +35952,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A493" s="6" t="s">
         <v>783</v>
       </c>
@@ -35953,7 +35984,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A494" s="6" t="s">
         <v>783</v>
       </c>
@@ -35985,7 +36016,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A495" s="6" t="s">
         <v>784</v>
       </c>
@@ -36017,7 +36048,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A496" s="6" t="s">
         <v>784</v>
       </c>
@@ -36049,7 +36080,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A497" s="6" t="s">
         <v>784</v>
       </c>
@@ -36081,7 +36112,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A498" s="6" t="s">
         <v>784</v>
       </c>
@@ -36113,7 +36144,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A499" s="6" t="s">
         <v>785</v>
       </c>
@@ -36145,7 +36176,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A500" s="6" t="s">
         <v>785</v>
       </c>
@@ -36177,7 +36208,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A501" s="6" t="s">
         <v>785</v>
       </c>
@@ -36209,7 +36240,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A502" s="6" t="s">
         <v>785</v>
       </c>
@@ -36241,7 +36272,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A503" s="6" t="s">
         <v>785</v>
       </c>
@@ -36273,7 +36304,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A504" s="6" t="s">
         <v>786</v>
       </c>
@@ -36305,7 +36336,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A505" s="6" t="s">
         <v>786</v>
       </c>
@@ -36337,7 +36368,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A506" s="6" t="s">
         <v>786</v>
       </c>
@@ -36369,7 +36400,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A507" s="6" t="s">
         <v>786</v>
       </c>
@@ -36401,7 +36432,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A508" s="6" t="s">
         <v>787</v>
       </c>
@@ -36433,7 +36464,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A509" s="6" t="s">
         <v>787</v>
       </c>
@@ -36465,7 +36496,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A510" s="6" t="s">
         <v>787</v>
       </c>
@@ -36497,7 +36528,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A511" s="6" t="s">
         <v>787</v>
       </c>
@@ -36529,7 +36560,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A512" s="6" t="s">
         <v>788</v>
       </c>
@@ -36561,7 +36592,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A513" s="6" t="s">
         <v>788</v>
       </c>
@@ -36593,7 +36624,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A514" s="6" t="s">
         <v>788</v>
       </c>
@@ -36625,7 +36656,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A515" s="6" t="s">
         <v>789</v>
       </c>
@@ -36657,7 +36688,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A516" s="6" t="s">
         <v>790</v>
       </c>
@@ -36689,7 +36720,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A517" s="6" t="s">
         <v>791</v>
       </c>
@@ -36721,7 +36752,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A518" s="6" t="s">
         <v>792</v>
       </c>
@@ -36753,7 +36784,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A519" s="6" t="s">
         <v>793</v>
       </c>
@@ -36785,7 +36816,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A520" s="6" t="s">
         <v>794</v>
       </c>
@@ -36817,7 +36848,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A521" s="6" t="s">
         <v>795</v>
       </c>
@@ -36849,7 +36880,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A522" s="6" t="s">
         <v>796</v>
       </c>
@@ -36881,7 +36912,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A523" s="6" t="s">
         <v>797</v>
       </c>
@@ -36913,7 +36944,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A524" s="6" t="s">
         <v>798</v>
       </c>
@@ -36945,7 +36976,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A525" s="6" t="s">
         <v>799</v>
       </c>
@@ -36977,7 +37008,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A526" s="6" t="s">
         <v>800</v>
       </c>
@@ -37009,7 +37040,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A527" s="6" t="s">
         <v>801</v>
       </c>
@@ -37041,7 +37072,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A528" s="6" t="s">
         <v>802</v>
       </c>
@@ -37073,7 +37104,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A529" s="10" t="s">
         <v>803</v>
       </c>
@@ -37105,7 +37136,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A530" s="10" t="s">
         <v>803</v>
       </c>
@@ -37137,7 +37168,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A531" s="10" t="s">
         <v>804</v>
       </c>
@@ -37169,7 +37200,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A532" s="10" t="s">
         <v>804</v>
       </c>
@@ -37201,7 +37232,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A533" s="10" t="s">
         <v>805</v>
       </c>
@@ -37233,7 +37264,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A534" s="10" t="s">
         <v>805</v>
       </c>
@@ -37265,7 +37296,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A535" s="10" t="s">
         <v>806</v>
       </c>
@@ -37297,7 +37328,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A536" s="10" t="s">
         <v>806</v>
       </c>
@@ -37329,7 +37360,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A537" s="10" t="s">
         <v>807</v>
       </c>
@@ -37361,7 +37392,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A538" s="10" t="s">
         <v>807</v>
       </c>
@@ -37393,7 +37424,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A539" s="10" t="s">
         <v>808</v>
       </c>
@@ -37425,7 +37456,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A540" s="10" t="s">
         <v>808</v>
       </c>
@@ -37457,7 +37488,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A541" s="10" t="s">
         <v>808</v>
       </c>
@@ -37489,7 +37520,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A542" s="10" t="s">
         <v>809</v>
       </c>
@@ -37521,7 +37552,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A543" s="10" t="s">
         <v>809</v>
       </c>
@@ -37553,7 +37584,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A544" s="10" t="s">
         <v>809</v>
       </c>
@@ -37585,7 +37616,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A545" s="10" t="s">
         <v>810</v>
       </c>
@@ -37617,7 +37648,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A546" s="10" t="s">
         <v>810</v>
       </c>
@@ -37649,7 +37680,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A547" s="10" t="s">
         <v>810</v>
       </c>
@@ -37681,7 +37712,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A548" s="10" t="s">
         <v>811</v>
       </c>
@@ -37713,7 +37744,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A549" s="10" t="s">
         <v>811</v>
       </c>
@@ -37745,7 +37776,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A550" s="10" t="s">
         <v>811</v>
       </c>
@@ -37777,7 +37808,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A551" s="10" t="s">
         <v>811</v>
       </c>
@@ -37809,7 +37840,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A552" s="10" t="s">
         <v>812</v>
       </c>
@@ -37841,7 +37872,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A553" s="10" t="s">
         <v>812</v>
       </c>
@@ -37873,7 +37904,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A554" s="10" t="s">
         <v>812</v>
       </c>
@@ -37905,7 +37936,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A555" s="10" t="s">
         <v>813</v>
       </c>
@@ -37937,7 +37968,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A556" s="10" t="s">
         <v>813</v>
       </c>
@@ -37969,7 +38000,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A557" s="10" t="s">
         <v>814</v>
       </c>
@@ -38001,7 +38032,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A558" s="10" t="s">
         <v>814</v>
       </c>
@@ -38033,7 +38064,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A559" s="10" t="s">
         <v>815</v>
       </c>
@@ -38065,7 +38096,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A560" s="10" t="s">
         <v>815</v>
       </c>
@@ -38097,7 +38128,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A561" s="10" t="s">
         <v>816</v>
       </c>
@@ -38129,7 +38160,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A562" s="10" t="s">
         <v>817</v>
       </c>
@@ -38161,7 +38192,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A563" s="10" t="s">
         <v>818</v>
       </c>
@@ -38193,7 +38224,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A564" s="10" t="s">
         <v>819</v>
       </c>
@@ -38225,7 +38256,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A565" s="10" t="s">
         <v>820</v>
       </c>
@@ -38257,7 +38288,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A566" s="10" t="s">
         <v>821</v>
       </c>
@@ -38289,7 +38320,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A567" s="10" t="s">
         <v>826</v>
       </c>
@@ -38321,7 +38352,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A568" s="10" t="s">
         <v>826</v>
       </c>
@@ -38353,7 +38384,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A569" s="10" t="s">
         <v>827</v>
       </c>
@@ -38385,7 +38416,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A570" s="10" t="s">
         <v>827</v>
       </c>
@@ -38417,7 +38448,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A571" s="6" t="s">
         <v>827</v>
       </c>
@@ -38449,7 +38480,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A572" s="6" t="s">
         <v>828</v>
       </c>
@@ -38481,7 +38512,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A573" s="6" t="s">
         <v>828</v>
       </c>
@@ -38513,7 +38544,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A574" s="6" t="s">
         <v>829</v>
       </c>
@@ -38545,7 +38576,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A575" s="6" t="s">
         <v>829</v>
       </c>
@@ -38577,7 +38608,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A576" s="6" t="s">
         <v>830</v>
       </c>
@@ -38609,7 +38640,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A577" s="6" t="s">
         <v>830</v>
       </c>
@@ -38641,7 +38672,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A578" s="6" t="s">
         <v>830</v>
       </c>
@@ -38673,7 +38704,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A579" s="6" t="s">
         <v>831</v>
       </c>
@@ -38705,7 +38736,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A580" s="6" t="s">
         <v>831</v>
       </c>
@@ -38737,7 +38768,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A581" s="6" t="s">
         <v>831</v>
       </c>
@@ -38769,7 +38800,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A582" s="6" t="s">
         <v>832</v>
       </c>
@@ -38801,7 +38832,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A583" s="6" t="s">
         <v>832</v>
       </c>
@@ -38833,7 +38864,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A584" s="6" t="s">
         <v>832</v>
       </c>
@@ -38865,7 +38896,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A585" s="6" t="s">
         <v>833</v>
       </c>
@@ -38897,7 +38928,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A586" s="6" t="s">
         <v>833</v>
       </c>
@@ -38929,7 +38960,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A587" s="10" t="s">
         <v>822</v>
       </c>
@@ -38961,7 +38992,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A588" s="10" t="s">
         <v>822</v>
       </c>
@@ -38993,7 +39024,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A589" s="10" t="s">
         <v>823</v>
       </c>
@@ -39025,7 +39056,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A590" s="10" t="s">
         <v>823</v>
       </c>
@@ -39057,7 +39088,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A591" s="10" t="s">
         <v>823</v>
       </c>
@@ -39089,7 +39120,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A592" s="10" t="s">
         <v>823</v>
       </c>
@@ -39121,7 +39152,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A593" s="10" t="s">
         <v>823</v>
       </c>
@@ -39153,7 +39184,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A594" s="10" t="s">
         <v>824</v>
       </c>
@@ -39185,7 +39216,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A595" s="10" t="s">
         <v>824</v>
       </c>
@@ -39217,7 +39248,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A596" s="10" t="s">
         <v>824</v>
       </c>
@@ -39249,7 +39280,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A597" s="10" t="s">
         <v>825</v>
       </c>
@@ -39281,25 +39312,25 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D602" s="12"/>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D603" s="12"/>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D604" s="12"/>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D605" s="12"/>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D606" s="12"/>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D607" s="12"/>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D608" s="12"/>
     </row>
   </sheetData>
@@ -39323,22 +39354,22 @@
       <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="119.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="121.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="25.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="19.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="63.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="63.33203125" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -39370,7 +39401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
@@ -39400,7 +39431,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>120</v>
       </c>
@@ -39429,7 +39460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>343</v>
       </c>
@@ -39458,7 +39489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>442</v>
       </c>
@@ -39487,7 +39518,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>571</v>
       </c>
@@ -39516,7 +39547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>657</v>
       </c>
@@ -39545,7 +39576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>706</v>
       </c>
@@ -39574,7 +39605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="34"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -39594,21 +39625,21 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="24.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -39637,7 +39668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
@@ -39663,7 +39694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -39689,7 +39720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -39715,7 +39746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -39741,7 +39772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -39767,7 +39798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -39793,7 +39824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -39819,7 +39850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -39845,7 +39876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -39871,7 +39902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -39897,7 +39928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>571</v>
       </c>
@@ -39923,7 +39954,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>571</v>
       </c>
@@ -39949,7 +39980,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>571</v>
       </c>
@@ -39975,7 +40006,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>571</v>
       </c>
@@ -40001,7 +40032,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>571</v>
       </c>
@@ -40027,7 +40058,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>571</v>
       </c>
@@ -40053,7 +40084,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>571</v>
       </c>
@@ -40079,25 +40110,25 @@
         <v>573</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D32" s="9"/>
     </row>
   </sheetData>
